--- a/utility/optbs/template/berita_acara_stock_opname.xlsx
+++ b/utility/optbs/template/berita_acara_stock_opname.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>SKPD</t>
   </si>
@@ -46,7 +46,7 @@
     <t>STOCK OPNAME PERSEDIAAN</t>
   </si>
   <si>
-    <t>SEMESTER : </t>
+    <t>SEMESTER : [c.semester]</t>
   </si>
   <si>
     <t>NO</t>
@@ -127,7 +127,7 @@
     <t>[a.total_harga_saldo_awal;ope=tbs:num]</t>
   </si>
   <si>
-    <t> [a.subtotal_saldo_awal; block=row; when [a.cetak_subtotal]=1]</t>
+    <t> [a.counter; block=row; when [a.cetak_subtotal]=1]</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -151,7 +151,13 @@
     <t>Kota Pekalongan, [b.tanggal_cetak]</t>
   </si>
   <si>
-    <t>An Pengguna / Kuasa Pengguna Barang Pengurus Barang Pembantu Pengurus Barang</t>
+    <t>An Pengguna / Kuasa Pengguna Barang </t>
+  </si>
+  <si>
+    <t>Pengurus Barang </t>
+  </si>
+  <si>
+    <t>Pembantu Pengurus Barang</t>
   </si>
   <si>
     <t>Pejabat Penatausahaan Pengguna Barang</t>
@@ -569,16 +575,16 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.24223602484472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3726708074534"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.5962732919255"/>
-    <col collapsed="false" hidden="false" max="15" min="4" style="0" width="17.7515527950311"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.360248447205"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8695652173913"/>
+    <col collapsed="false" hidden="false" max="15" min="4" style="0" width="18.4037267080745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,17 +970,21 @@
       </c>
       <c r="B18" s="34"/>
       <c r="E18" s="34"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="34"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="34"/>
       <c r="E19" s="34"/>
@@ -1021,39 +1031,39 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
       <c r="D24" s="43"/>
       <c r="E24" s="42"/>
       <c r="F24" s="41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="42"/>
       <c r="L24" s="41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="45"/>
       <c r="E25" s="44"/>
       <c r="F25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="44"/>
       <c r="L25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M25" s="39"/>
     </row>

--- a/utility/optbs/template/berita_acara_stock_opname.xlsx
+++ b/utility/optbs/template/berita_acara_stock_opname.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>SKPD</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>[a.subtotal_masuk; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[a.subtotal_keluar; ope=tbs:num]</t>
   </si>
   <si>
     <t>[a.subtotal_sisa; ope=tbs:num]</t>
@@ -576,15 +579,15 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.24223602484472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.360248447205"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8695652173913"/>
-    <col collapsed="false" hidden="false" max="15" min="4" style="0" width="18.4037267080745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3478260869565"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5155279503106"/>
+    <col collapsed="false" hidden="false" max="15" min="4" style="0" width="18.9006211180124"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,18 +906,20 @@
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
@@ -948,7 +953,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -960,31 +965,31 @@
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
       <c r="L17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M17" s="36"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="34"/>
       <c r="L18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="34"/>
       <c r="E19" s="34"/>
@@ -1031,39 +1036,39 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
       <c r="D24" s="43"/>
       <c r="E24" s="42"/>
       <c r="F24" s="41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="42"/>
       <c r="L24" s="41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="45"/>
       <c r="E25" s="44"/>
       <c r="F25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="44"/>
       <c r="L25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M25" s="39"/>
     </row>

--- a/utility/optbs/template/berita_acara_stock_opname.xlsx
+++ b/utility/optbs/template/berita_acara_stock_opname.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>SKPD</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>[a.subtotal_keluar; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.subtotal_sisa; ope=tbs:num]</t>
   </si>
   <si>
     <t>GRAND TOTAL</t>
@@ -374,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -473,6 +470,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -578,16 +579,16 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.24223602484472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3478260869565"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5155279503106"/>
-    <col collapsed="false" hidden="false" max="15" min="4" style="0" width="18.9006211180124"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3354037267081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1739130434783"/>
+    <col collapsed="false" hidden="false" max="15" min="4" style="0" width="19.3913043478261"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,166 +912,167 @@
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
-      <c r="O14" s="24" t="s">
-        <v>40</v>
+      <c r="O14" s="25" t="e">
+        <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "I" &amp; ROW() )-INDIRECT( "L" &amp; ROW() )</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-    </row>
-    <row r="16" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="L17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="s">
+      <c r="B18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="34"/>
+      <c r="I18" s="35"/>
       <c r="L18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
+        <v>45</v>
+      </c>
+      <c r="M18" s="38"/>
+      <c r="N18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="E19" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="34"/>
+      <c r="I19" s="35"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="39"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="38"/>
+      <c r="A20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="38"/>
+      <c r="A21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="39"/>
+      <c r="A22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="39"/>
+      <c r="A23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41" t="s">
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="L24" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="L24" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" s="39"/>
+      <c r="M24" s="40"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="44"/>
+      <c r="I25" s="45"/>
       <c r="L25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="M25" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/utility/optbs/template/berita_acara_stock_opname.xlsx
+++ b/utility/optbs/template/berita_acara_stock_opname.xlsx
@@ -185,11 +185,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -228,14 +229,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="AriaK"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -245,8 +238,8 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="AriaK"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -259,41 +252,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="AriaK"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="AriaK"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="AriaK"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -371,11 +335,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -392,151 +360,135 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -548,7 +500,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,7 +508,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -580,130 +532,174 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+      <selection pane="topLeft" activeCell="O14" activeCellId="7" sqref="D13 E13:F14 G12:I12 H14:I14 J12:J13 K12:L14 M12:O13 O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.24223602484472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3354037267081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1739130434783"/>
-    <col collapsed="false" hidden="false" max="15" min="4" style="0" width="19.3913043478261"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.24223602484472"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.472049689441"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.4844720496894"/>
+    <col collapsed="false" hidden="false" max="15" min="4" style="1" width="20.3788819875776"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="9.20496894409938"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="A8" s="0"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -734,9 +730,9 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
@@ -812,31 +808,31 @@
       <c r="F12" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -850,13 +846,13 @@
       <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="18" t="n">
@@ -868,22 +864,22 @@
       <c r="I13" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -891,188 +887,210 @@
       <c r="A14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24" t="s">
+      <c r="G14" s="27"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
+      <c r="J14" s="27"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25" t="e">
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28" t="e">
         <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "I" &amp; ROW() )-INDIRECT( "L" &amp; ROW() )</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="L17" s="1" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="L17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="37"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="1" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="35"/>
-      <c r="L18" s="1" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="36"/>
+      <c r="L18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="35"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="40"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="36"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="0"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="0"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="40"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="0"/>
+      <c r="L22" s="38"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="40"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="0"/>
+      <c r="L23" s="38"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="42" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="L24" s="42" t="s">
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="L24" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="40"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="2" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="45"/>
-      <c r="L25" s="2" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="42"/>
+      <c r="L25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M25" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/utility/optbs/template/berita_acara_stock_opname.xlsx
+++ b/utility/optbs/template/berita_acara_stock_opname.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>SKPD</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>[d.grandTotal_saldoAwal; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[d.grandTotal_penerimaan; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[d.grandTotal_pengeluaran; ope=tbs:num]</t>
   </si>
   <si>
     <t>Mengetahui</t>
@@ -335,7 +344,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,6 +433,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -448,7 +461,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,6 +479,22 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -529,19 +558,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="7" sqref="D13 E13:F14 G12:I12 H14:I14 J12:J13 K12:L14 M12:O13 O14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15:AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.24223602484472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.472049689441"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.4844720496894"/>
-    <col collapsed="false" hidden="false" max="15" min="4" style="1" width="20.3788819875776"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="9.20496894409938"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.0869565217391"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.7888198757764"/>
+    <col collapsed="false" hidden="false" max="15" min="4" style="1" width="22.0186335403727"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="9.69565217391304"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,216 +913,250 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26" t="s">
+      <c r="J14" s="28"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28" t="e">
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29" t="e">
         <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "I" &amp; ROW() )-INDIRECT( "L" &amp; ROW() )</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26" t="e">
+        <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "I" &amp; ROW() )-INDIRECT( "L" &amp; ROW() )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
     </row>
     <row r="16" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="0"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="0"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
       <c r="M16" s="0"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="A17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
       <c r="L17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="35"/>
+        <v>45</v>
+      </c>
+      <c r="M17" s="40"/>
       <c r="N17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="36"/>
+      <c r="A18" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="41"/>
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="36"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="41"/>
       <c r="L18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="36"/>
+        <v>49</v>
+      </c>
+      <c r="B19" s="41"/>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
-      <c r="E19" s="36"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="41"/>
       <c r="L19" s="2"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="0"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="0"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="38"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="0"/>
-      <c r="L22" s="38"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="38"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="0"/>
-      <c r="L23" s="38"/>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
-      <c r="L24" s="39" t="s">
-        <v>49</v>
+      <c r="A24" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="L24" s="44" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="42"/>
+        <v>53</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="42"/>
+      <c r="I25" s="47"/>
       <c r="L25" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="16">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A2:B2"/>
@@ -1110,12 +1173,10 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="M9:O9"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.590277777777778" right="1.575" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="5" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.6" right="0.820138888888889" top="0.6" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/utility/optbs/template/berita_acara_stock_opname.xlsx
+++ b/utility/optbs/template/berita_acara_stock_opname.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>SKPD</t>
   </si>
@@ -46,7 +46,7 @@
     <t>STOCK OPNAME PERSEDIAAN</t>
   </si>
   <si>
-    <t>SEMESTER : [c.semester]</t>
+    <t>PER TANGGAL : [c.tanggal]</t>
   </si>
   <si>
     <t>NO</t>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>An Pengguna / Kuasa Pengguna Barang </t>
-  </si>
-  <si>
-    <t>Pengurus Barang </t>
   </si>
   <si>
     <t>Pembantu Pengurus Barang</t>
@@ -560,17 +557,17 @@
   </sheetPr>
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15:AN15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.24223602484472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.0869565217391"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.7888198757764"/>
-    <col collapsed="false" hidden="false" max="15" min="4" style="1" width="22.0186335403727"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="9.69565217391304"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.8633540372671"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.416149068323"/>
+    <col collapsed="false" hidden="false" max="15" min="4" style="1" width="23.9937888198758"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="10.1863354037267"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,6 +590,31 @@
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -614,6 +636,31 @@
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -635,6 +682,31 @@
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
+      <c r="AL3" s="0"/>
+      <c r="AM3" s="0"/>
+      <c r="AN3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
@@ -652,6 +724,31 @@
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0"/>
+      <c r="AN4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -671,6 +768,31 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -690,6 +812,31 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="0"/>
+      <c r="AN6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -709,6 +856,31 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
+      <c r="AN7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
@@ -726,6 +898,31 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
+      <c r="AK8" s="0"/>
+      <c r="AL8" s="0"/>
+      <c r="AM8" s="0"/>
+      <c r="AN8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
@@ -757,6 +954,31 @@
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0"/>
+      <c r="AH9" s="0"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0"/>
+      <c r="AK9" s="0"/>
+      <c r="AL9" s="0"/>
+      <c r="AM9" s="0"/>
+      <c r="AN9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
@@ -798,6 +1020,31 @@
       <c r="O10" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="0"/>
+      <c r="AI10" s="0"/>
+      <c r="AJ10" s="0"/>
+      <c r="AK10" s="0"/>
+      <c r="AL10" s="0"/>
+      <c r="AM10" s="0"/>
+      <c r="AN10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
@@ -817,6 +1064,31 @@
       <c r="M11" s="13"/>
       <c r="N11" s="14"/>
       <c r="O11" s="15"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0"/>
+      <c r="AK11" s="0"/>
+      <c r="AL11" s="0"/>
+      <c r="AM11" s="0"/>
+      <c r="AN11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
@@ -864,6 +1136,31 @@
       <c r="O12" s="21" t="s">
         <v>30</v>
       </c>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
+      <c r="AK12" s="0"/>
+      <c r="AL12" s="0"/>
+      <c r="AM12" s="0"/>
+      <c r="AN12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
@@ -911,6 +1208,31 @@
       <c r="O13" s="21" t="s">
         <v>30</v>
       </c>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+      <c r="AD13" s="0"/>
+      <c r="AE13" s="0"/>
+      <c r="AF13" s="0"/>
+      <c r="AG13" s="0"/>
+      <c r="AH13" s="0"/>
+      <c r="AI13" s="0"/>
+      <c r="AJ13" s="0"/>
+      <c r="AK13" s="0"/>
+      <c r="AL13" s="0"/>
+      <c r="AM13" s="0"/>
+      <c r="AN13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
@@ -941,6 +1263,31 @@
         <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "I" &amp; ROW() )-INDIRECT( "L" &amp; ROW() )</f>
         <v>#VALUE!</v>
       </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+      <c r="AD14" s="0"/>
+      <c r="AE14" s="0"/>
+      <c r="AF14" s="0"/>
+      <c r="AG14" s="0"/>
+      <c r="AH14" s="0"/>
+      <c r="AI14" s="0"/>
+      <c r="AJ14" s="0"/>
+      <c r="AK14" s="0"/>
+      <c r="AL14" s="0"/>
+      <c r="AM14" s="0"/>
+      <c r="AN14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="30"/>
@@ -1039,21 +1386,19 @@
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="41"/>
       <c r="L18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="42"/>
       <c r="N18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="0"/>
@@ -1121,38 +1466,38 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="45"/>
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="45"/>
       <c r="F24" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="I24" s="45"/>
       <c r="L24" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
       <c r="D25" s="48"/>
       <c r="E25" s="47"/>
       <c r="F25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="47"/>
       <c r="L25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/utility/optbs/template/berita_acara_stock_opname.xlsx
+++ b/utility/optbs/template/berita_acara_stock_opname.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Lampiran" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,171 +20,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
-  <si>
-    <t>SKPD</t>
-  </si>
-  <si>
-    <t>: [b.nama_skpd]</t>
-  </si>
-  <si>
-    <t>Provinsi</t>
-  </si>
-  <si>
-    <t>: Jawa Tengah</t>
-  </si>
-  <si>
-    <t>Kabupaten / Kota</t>
-  </si>
-  <si>
-    <t>: Kota Pekalongan</t>
-  </si>
-  <si>
-    <t>LAMPIRAN BERITA ACARA</t>
-  </si>
-  <si>
-    <t>STOCK OPNAME PERSEDIAAN</t>
-  </si>
-  <si>
-    <t>PER TANGGAL : [c.tanggal]</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>JENIS BARANG</t>
-  </si>
-  <si>
-    <t>SATUAN</t>
-  </si>
-  <si>
-    <t>SALDO AWAL</t>
-  </si>
-  <si>
-    <t>JUMLAH PENERIMAAN/PENGADAAN BARANG</t>
-  </si>
-  <si>
-    <t>JUMLAH PENGELUARAN</t>
-  </si>
-  <si>
-    <t>SALDO AKHIR / SISA</t>
-  </si>
-  <si>
-    <t>Banyaknya</t>
-  </si>
-  <si>
-    <t>Harga Satuan</t>
-  </si>
-  <si>
-    <t>Jumlah Harga</t>
-  </si>
-  <si>
-    <t> [a.jenis_barang; block=row; when [a.cetak_header]=1]</t>
-  </si>
-  <si>
-    <t>[a.no;ope=tbs:num;block=row; when [a.jumlah_saldo_awal]=0]</t>
-  </si>
-  <si>
-    <t>[a.nm_brg]</t>
-  </si>
-  <si>
-    <t>[a.satuan]</t>
-  </si>
-  <si>
-    <t>[a.jumlah_diterima;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.harga_satuan_masuk;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.total_harga_masuk;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.jumlah_keluar;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.harga_satuan_keluar;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.total_harga_keluar;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.sisa_barang;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.total_harga_sisa;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.no;ope=tbs:num;block=row; when [a.jumlah_diterima]=0]</t>
-  </si>
-  <si>
-    <t>[a.jumlah_saldo_awal;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.harga_satuan_saldo_awal;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.total_harga_saldo_awal;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t> [a.counter; block=row; when [a.cetak_subtotal]=1]</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>[a.subtotal_saldo_awal; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.subtotal_masuk; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.subtotal_keluar; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>GRAND TOTAL</t>
-  </si>
-  <si>
-    <t>[d.grandTotal_saldoAwal; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[d.grandTotal_penerimaan; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[d.grandTotal_pengeluaran; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>Mengetahui</t>
-  </si>
-  <si>
-    <t>Kota Pekalongan, [b.tanggal_cetak]</t>
-  </si>
-  <si>
-    <t>An Pengguna / Kuasa Pengguna Barang </t>
-  </si>
-  <si>
-    <t>Pembantu Pengurus Barang</t>
-  </si>
-  <si>
-    <t>Pejabat Penatausahaan Pengguna Barang</t>
-  </si>
-  <si>
-    <t>([b.nama_atasan])</t>
-  </si>
-  <si>
-    <t>……………………………………</t>
-  </si>
-  <si>
-    <t>([b.nama_penyimpan_barang])</t>
-  </si>
-  <si>
-    <t>NIP. [b.nip_atasan]</t>
-  </si>
-  <si>
-    <t>NIP ………………………………</t>
-  </si>
-  <si>
-    <t>NIP. [b.nip_penyimpan_barang]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+  <si>
+    <t xml:space="preserve">SKPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: [b.nama_skpd]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provinsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: Jawa Tengah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabupaten / Kota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: Kota Pekalongan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPIRAN BERITA ACARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOCK OPNAME PERSEDIAAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PER TANGGAL : [c.tanggal]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KODE PERSEDIAAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JENIS BARANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SATUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALDO AWAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUMLAH PENERIMAAN/PENGADAAN BARANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUMLAH PENGELUARAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALDO AKHIR / SISA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyaknya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga Satuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumlah Harga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [a.jenis_barang; block=row; when [a.cetak_header]=1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.no;ope=tbs:num;block=row; when [a.jumlah_saldo_awal]=0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.kd_brg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.nm_brg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.satuan]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.jumlah_diterima;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.harga_satuan_masuk;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.total_harga_masuk;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.jumlah_keluar;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.harga_satuan_keluar;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.total_harga_keluar;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.sisa_barang;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.total_harga_sisa;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.no;ope=tbs:num;block=row; when [a.jumlah_diterima]=0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.jumlah_saldo_awal;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.harga_satuan_saldo_awal;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.total_harga_saldo_awal;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [a.counter; block=row; when [a.cetak_subtotal]=1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.subtotal_saldo_awal; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.subtotal_masuk; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a.subtotal_keluar; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAND TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[d.grandTotal_saldoAwal; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[d.grandTotal_penerimaan; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[d.grandTotal_pengeluaran; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengetahui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kota Pekalongan, [b.tanggal_cetak]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Pengguna / Kuasa Pengguna Barang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembantu Pengurus Barang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pejabat Penatausahaan Pengguna Barang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">([b.nama_atasan])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……………………………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">([b.nama_penyimpan_barang])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIP. [b.nip_atasan]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIP ………………………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIP. [b.nip_penyimpan_barang]</t>
   </si>
 </sst>
 </file>
@@ -192,17 +198,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -220,10 +225,79 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -231,7 +305,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -239,28 +312,24 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -268,23 +337,79 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -316,7 +441,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,6 +465,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -350,143 +523,143 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -494,59 +667,135 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -555,19 +804,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.24223602484472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.8633540372671"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.416149068323"/>
-    <col collapsed="false" hidden="false" max="15" min="4" style="1" width="23.9937888198758"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="10.1863354037267"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="44.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="23.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="1" width="10.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,14 +824,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="0"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
@@ -615,20 +864,21 @@
       <c r="AL1" s="0"/>
       <c r="AM1" s="0"/>
       <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="0"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
@@ -661,20 +911,21 @@
       <c r="AL2" s="0"/>
       <c r="AM2" s="0"/>
       <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="0"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
@@ -707,6 +958,7 @@
       <c r="AL3" s="0"/>
       <c r="AM3" s="0"/>
       <c r="AN3" s="0"/>
+      <c r="AO3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
@@ -749,6 +1001,7 @@
       <c r="AL4" s="0"/>
       <c r="AM4" s="0"/>
       <c r="AN4" s="0"/>
+      <c r="AO4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -768,7 +1021,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="0"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="0"/>
       <c r="R5" s="0"/>
       <c r="S5" s="0"/>
@@ -793,6 +1046,7 @@
       <c r="AL5" s="0"/>
       <c r="AM5" s="0"/>
       <c r="AN5" s="0"/>
+      <c r="AO5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -812,7 +1066,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="0"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="0"/>
       <c r="R6" s="0"/>
       <c r="S6" s="0"/>
@@ -837,6 +1091,7 @@
       <c r="AL6" s="0"/>
       <c r="AM6" s="0"/>
       <c r="AN6" s="0"/>
+      <c r="AO6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -856,7 +1111,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="0"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="0"/>
       <c r="R7" s="0"/>
       <c r="S7" s="0"/>
@@ -881,10 +1136,11 @@
       <c r="AL7" s="0"/>
       <c r="AM7" s="0"/>
       <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="0"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -897,7 +1153,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="0"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="0"/>
       <c r="Q8" s="0"/>
       <c r="R8" s="0"/>
@@ -923,6 +1179,7 @@
       <c r="AL8" s="0"/>
       <c r="AM8" s="0"/>
       <c r="AN8" s="0"/>
+      <c r="AO8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
@@ -937,24 +1194,26 @@
       <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="O9" s="8"/>
-      <c r="P9" s="0"/>
+      <c r="P9" s="8"/>
       <c r="Q9" s="0"/>
       <c r="R9" s="0"/>
       <c r="S9" s="0"/>
@@ -979,48 +1238,49 @@
       <c r="AL9" s="0"/>
       <c r="AM9" s="0"/>
       <c r="AN9" s="0"/>
+      <c r="AO9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="10" t="s">
+      <c r="J10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="10" t="s">
+      <c r="M10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="O10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="0"/>
+      <c r="P10" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="Q10" s="0"/>
       <c r="R10" s="0"/>
       <c r="S10" s="0"/>
@@ -1045,26 +1305,27 @@
       <c r="AL10" s="0"/>
       <c r="AM10" s="0"/>
       <c r="AN10" s="0"/>
+      <c r="AO10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="0"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="0"/>
       <c r="R11" s="0"/>
       <c r="S11" s="0"/>
@@ -1089,54 +1350,57 @@
       <c r="AL11" s="0"/>
       <c r="AM11" s="0"/>
       <c r="AN11" s="0"/>
+      <c r="AO11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19" t="n">
+      <c r="C12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>24</v>
+      <c r="G12" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="J12" s="21" t="s">
         <v>27</v>
       </c>
+      <c r="K12" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="L12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="21" t="s">
-        <v>24</v>
+      <c r="M12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="0"/>
+        <v>26</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="Q12" s="0"/>
       <c r="R12" s="0"/>
       <c r="S12" s="0"/>
@@ -1161,54 +1425,57 @@
       <c r="AL12" s="0"/>
       <c r="AM12" s="0"/>
       <c r="AN12" s="0"/>
+      <c r="AO12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>33</v>
+      <c r="C13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19" t="n">
+        <v>35</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="18" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="0"/>
+      <c r="P13" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="Q13" s="0"/>
       <c r="R13" s="0"/>
       <c r="S13" s="0"/>
@@ -1233,37 +1500,38 @@
       <c r="AL13" s="0"/>
       <c r="AM13" s="0"/>
       <c r="AN13" s="0"/>
+      <c r="AO13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="N14" s="28"/>
-      <c r="O14" s="29" t="e">
+      <c r="O14" s="28"/>
+      <c r="P14" s="29" t="n">
         <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "I" &amp; ROW() )-INDIRECT( "L" &amp; ROW() )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P14" s="0"/>
+        <v>0</v>
+      </c>
       <c r="Q14" s="0"/>
       <c r="R14" s="0"/>
       <c r="S14" s="0"/>
@@ -1288,35 +1556,36 @@
       <c r="AL14" s="0"/>
       <c r="AM14" s="0"/>
       <c r="AN14" s="0"/>
+      <c r="AO14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="30"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26" t="e">
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="36"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26" t="n">
         <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "I" &amp; ROW() )-INDIRECT( "L" &amp; ROW() )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P15" s="37"/>
+        <v>0</v>
+      </c>
       <c r="Q15" s="37"/>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
@@ -1341,27 +1610,29 @@
       <c r="AL15" s="37"/>
       <c r="AM15" s="37"/>
       <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
     </row>
     <row r="16" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="0"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="0"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="0"/>
       <c r="L16" s="39"/>
-      <c r="M16" s="0"/>
-      <c r="N16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="0"/>
       <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -1369,159 +1640,169 @@
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="40"/>
-      <c r="L17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="0"/>
+      <c r="K17" s="40"/>
+      <c r="M17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="40"/>
+      <c r="O17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" s="41"/>
-      <c r="C18" s="0"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="41"/>
-      <c r="L18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="42"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="41"/>
+      <c r="M18" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="0"/>
+        <v>50</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="0"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="41"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="0"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="41"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="43"/>
-      <c r="B20" s="0"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
-      <c r="F20" s="43"/>
+      <c r="F20" s="0"/>
       <c r="G20" s="43"/>
       <c r="H20" s="43"/>
-      <c r="I20" s="0"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="0"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="43"/>
-      <c r="B21" s="0"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
-      <c r="F21" s="43"/>
+      <c r="F21" s="0"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
-      <c r="I21" s="0"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="0"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="43"/>
-      <c r="B22" s="0"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
-      <c r="F22" s="43"/>
+      <c r="F22" s="0"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="0"/>
-      <c r="L22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="0"/>
+      <c r="M22" s="43"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="43"/>
-      <c r="B23" s="0"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="0"/>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
-      <c r="F23" s="43"/>
+      <c r="F23" s="0"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
-      <c r="I23" s="0"/>
-      <c r="L23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="0"/>
+      <c r="M23" s="43"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="45"/>
+        <v>51</v>
+      </c>
+      <c r="B24" s="44"/>
       <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-      <c r="L24" s="44" t="s">
-        <v>51</v>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+      <c r="M24" s="44" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="47"/>
+        <v>54</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="3"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="47"/>
-      <c r="L25" s="3" t="s">
-        <v>54</v>
+      <c r="I25" s="3"/>
+      <c r="J25" s="47"/>
+      <c r="M25" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A7:O7"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A7:P7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.6" right="0.820138888888889" top="0.6" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/utility/optbs/template/berita_acara_stock_opname.xlsx
+++ b/utility/optbs/template/berita_acara_stock_opname.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t xml:space="preserve">SKPD</t>
   </si>
@@ -148,6 +148,9 @@
     <t xml:space="preserve">[a.subtotal_keluar; ope=tbs:num]</t>
   </si>
   <si>
+    <t xml:space="preserve">[a.subtotal_sisa; ope=tbs:num]</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRAND TOTAL</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">[d.grandTotal_pengeluaran; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[d.grandTotal_sisa; ope=tbs:num]</t>
   </si>
   <si>
     <t xml:space="preserve">Mengetahui</t>
@@ -202,12 +208,13 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -225,79 +232,10 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -305,6 +243,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -312,24 +251,28 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -337,79 +280,23 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -441,7 +328,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -465,56 +352,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -523,143 +362,139 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -667,135 +502,59 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -806,16 +565,16 @@
   </sheetPr>
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="44.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="23.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="44.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="23.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="1" width="10.19"/>
   </cols>
   <sheetData>
@@ -1528,9 +1287,8 @@
       </c>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
-      <c r="P14" s="29" t="n">
-        <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "I" &amp; ROW() )-INDIRECT( "L" &amp; ROW() )</f>
-        <v>0</v>
+      <c r="P14" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="Q14" s="0"/>
       <c r="R14" s="0"/>
@@ -1559,225 +1317,224 @@
       <c r="AO14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="36"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="35"/>
       <c r="L15" s="26"/>
       <c r="M15" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="36"/>
+        <v>46</v>
+      </c>
+      <c r="N15" s="35"/>
       <c r="O15" s="26"/>
-      <c r="P15" s="26" t="n">
-        <f aca="true">INDIRECT( "F" &amp; ROW() )+INDIRECT( "I" &amp; ROW() )-INDIRECT( "L" &amp; ROW() )</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
+      <c r="P15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
     </row>
     <row r="16" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="0"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="0"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="0"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
       <c r="N16" s="0"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="A17" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
       <c r="M17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="40"/>
+        <v>49</v>
+      </c>
+      <c r="N17" s="39"/>
       <c r="O17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="A18" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
-      <c r="F18" s="41"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="41"/>
+      <c r="J18" s="40"/>
       <c r="M18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
+        <v>51</v>
+      </c>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
-      <c r="F19" s="41"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="41"/>
+      <c r="J19" s="40"/>
       <c r="M19" s="2"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="0"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="0"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="0"/>
-      <c r="M22" s="43"/>
+      <c r="M22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="0"/>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
       <c r="J23" s="0"/>
-      <c r="M23" s="43"/>
+      <c r="M23" s="42"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
-      <c r="M24" s="44" t="s">
+      <c r="A24" s="43" t="s">
         <v>53</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
+      <c r="M24" s="43" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="47"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="47"/>
+      <c r="J25" s="46"/>
       <c r="M25" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
